--- a/team_specific_matrix/Southern Ind._A.xlsx
+++ b/team_specific_matrix/Southern Ind._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1924398625429553</v>
+        <v>0.1951951951951952</v>
       </c>
       <c r="C2">
-        <v>0.584192439862543</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006872852233676976</v>
+        <v>0.01201201201201201</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.147766323024055</v>
+        <v>0.1471471471471471</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06872852233676977</v>
+        <v>0.06906906906906907</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005747126436781609</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="C3">
-        <v>0.02298850574712644</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01724137931034483</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7528735632183908</v>
+        <v>0.7587939698492462</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2011494252873563</v>
+        <v>0.185929648241206</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1055555555555556</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01111111111111111</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="F6">
-        <v>0.09444444444444444</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2222222222222222</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01111111111111111</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09444444444444444</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="R6">
-        <v>0.05</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="S6">
-        <v>0.4111111111111111</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1089108910891089</v>
+        <v>0.10546875</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0198019801980198</v>
+        <v>0.015625</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07425742574257425</v>
+        <v>0.05859375</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1732673267326733</v>
+        <v>0.15234375</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01485148514851485</v>
+        <v>0.0234375</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1386138613861386</v>
+        <v>0.16015625</v>
       </c>
       <c r="R7">
-        <v>0.04950495049504951</v>
+        <v>0.05859375</v>
       </c>
       <c r="S7">
-        <v>0.4207920792079208</v>
+        <v>0.42578125</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1134969325153374</v>
+        <v>0.09715639810426541</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0245398773006135</v>
+        <v>0.02606635071090047</v>
       </c>
       <c r="E8">
-        <v>0.003067484662576687</v>
+        <v>0.002369668246445498</v>
       </c>
       <c r="F8">
-        <v>0.0460122699386503</v>
+        <v>0.05213270142180094</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1042944785276074</v>
+        <v>0.1255924170616114</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03067484662576687</v>
+        <v>0.03080568720379147</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1533742331288344</v>
+        <v>0.1540284360189574</v>
       </c>
       <c r="R8">
-        <v>0.1042944785276074</v>
+        <v>0.0924170616113744</v>
       </c>
       <c r="S8">
-        <v>0.4202453987730062</v>
+        <v>0.4194312796208531</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1134751773049645</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01418439716312057</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05673758865248227</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09219858156028368</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02836879432624113</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.148936170212766</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="R9">
-        <v>0.06382978723404255</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="S9">
-        <v>0.4822695035460993</v>
+        <v>0.4754098360655737</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1323106423777565</v>
+        <v>0.1223241590214067</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02013422818791946</v>
+        <v>0.02064220183486239</v>
       </c>
       <c r="E10">
-        <v>0.001917545541706615</v>
+        <v>0.001529051987767584</v>
       </c>
       <c r="F10">
-        <v>0.07286673058485139</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1188878235858102</v>
+        <v>0.1162079510703364</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03547459252157239</v>
+        <v>0.03134556574923547</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1802492809204219</v>
+        <v>0.1880733944954129</v>
       </c>
       <c r="R10">
-        <v>0.07861936720997123</v>
+        <v>0.07874617737003058</v>
       </c>
       <c r="S10">
-        <v>0.3595397890699904</v>
+        <v>0.367737003058104</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1246105919003115</v>
+        <v>0.1381909547738693</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07476635514018691</v>
+        <v>0.0678391959798995</v>
       </c>
       <c r="K11">
-        <v>0.1900311526479751</v>
+        <v>0.1984924623115578</v>
       </c>
       <c r="L11">
-        <v>0.5981308411214953</v>
+        <v>0.585427135678392</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01246105919003115</v>
+        <v>0.01005025125628141</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7263681592039801</v>
+        <v>0.7366255144032922</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2238805970149254</v>
+        <v>0.205761316872428</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.009950248756218905</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03980099502487562</v>
+        <v>0.04526748971193416</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6285714285714286</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3428571428571429</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02857142857142857</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0202020202020202</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1060606060606061</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="I15">
-        <v>0.03535353535353535</v>
+        <v>0.06147540983606557</v>
       </c>
       <c r="J15">
-        <v>0.3636363636363636</v>
+        <v>0.3360655737704918</v>
       </c>
       <c r="K15">
-        <v>0.06060606060606061</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01515151515151515</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07575757575757576</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3232323232323233</v>
+        <v>0.3237704918032787</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02564102564102564</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1282051282051282</v>
+        <v>0.1233480176211454</v>
       </c>
       <c r="I16">
-        <v>0.08205128205128205</v>
+        <v>0.0881057268722467</v>
       </c>
       <c r="J16">
-        <v>0.4564102564102564</v>
+        <v>0.4581497797356828</v>
       </c>
       <c r="K16">
-        <v>0.158974358974359</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01025641025641026</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.01025641025641026</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1282051282051282</v>
+        <v>0.13215859030837</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01333333333333333</v>
+        <v>0.01745635910224439</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2066666666666667</v>
+        <v>0.1920199501246883</v>
       </c>
       <c r="I17">
-        <v>0.04</v>
+        <v>0.0598503740648379</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.3990024937655861</v>
       </c>
       <c r="K17">
-        <v>0.1266666666666667</v>
+        <v>0.1221945137157107</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03</v>
+        <v>0.02992518703241895</v>
       </c>
       <c r="N17">
-        <v>0.01</v>
+        <v>0.007481296758104738</v>
       </c>
       <c r="O17">
-        <v>0.05</v>
+        <v>0.04239401496259352</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1233333333333333</v>
+        <v>0.1296758104738155</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02836879432624113</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1914893617021277</v>
+        <v>0.192090395480226</v>
       </c>
       <c r="I18">
-        <v>0.1276595744680851</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="J18">
-        <v>0.3333333333333333</v>
+        <v>0.3446327683615819</v>
       </c>
       <c r="K18">
-        <v>0.1418439716312057</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007092198581560284</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05673758865248227</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1134751773049645</v>
+        <v>0.1073446327683616</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01314553990610329</v>
+        <v>0.01412639405204461</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1774647887323944</v>
+        <v>0.187360594795539</v>
       </c>
       <c r="I19">
-        <v>0.0835680751173709</v>
+        <v>0.07806691449814127</v>
       </c>
       <c r="J19">
-        <v>0.371830985915493</v>
+        <v>0.3776951672862454</v>
       </c>
       <c r="K19">
-        <v>0.1502347417840376</v>
+        <v>0.1434944237918216</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01971830985915493</v>
+        <v>0.02156133828996282</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07417840375586854</v>
+        <v>0.07434944237918216</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1098591549295775</v>
+        <v>0.1033457249070632</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southern Ind._A.xlsx
+++ b/team_specific_matrix/Southern Ind._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1951951951951952</v>
+        <v>0.1887323943661972</v>
       </c>
       <c r="C2">
-        <v>0.5765765765765766</v>
+        <v>0.5859154929577465</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01201201201201201</v>
+        <v>0.01126760563380282</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1471471471471471</v>
+        <v>0.1436619718309859</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06906906906906907</v>
+        <v>0.07042253521126761</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005025125628140704</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="C3">
-        <v>0.03015075376884422</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02010050251256281</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7587939698492462</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.185929648241206</v>
+        <v>0.1813953488372093</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7173913043478261</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2608695652173913</v>
+        <v>0.2765957446808511</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08333333333333333</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008771929824561403</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="E6">
-        <v>0.004385964912280702</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="F6">
-        <v>0.09649122807017543</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2192982456140351</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01754385964912281</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1052631578947368</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="R6">
-        <v>0.04824561403508772</v>
+        <v>0.06147540983606557</v>
       </c>
       <c r="S6">
-        <v>0.4166666666666667</v>
+        <v>0.4098360655737705</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.10546875</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.015625</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05859375</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.15234375</v>
+        <v>0.1433823529411765</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0234375</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.16015625</v>
+        <v>0.1654411764705882</v>
       </c>
       <c r="R7">
-        <v>0.05859375</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S7">
-        <v>0.42578125</v>
+        <v>0.4264705882352941</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09715639810426541</v>
+        <v>0.09429824561403509</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02606635071090047</v>
+        <v>0.02412280701754386</v>
       </c>
       <c r="E8">
-        <v>0.002369668246445498</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="F8">
-        <v>0.05213270142180094</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1255924170616114</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03080568720379147</v>
+        <v>0.03070175438596491</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1540284360189574</v>
+        <v>0.162280701754386</v>
       </c>
       <c r="R8">
-        <v>0.0924170616113744</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="S8">
-        <v>0.4194312796208531</v>
+        <v>0.4254385964912281</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09836065573770492</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01639344262295082</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06557377049180328</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08196721311475409</v>
+        <v>0.08717948717948718</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0273224043715847</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1693989071038251</v>
+        <v>0.158974358974359</v>
       </c>
       <c r="R9">
-        <v>0.06557377049180328</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="S9">
-        <v>0.4754098360655737</v>
+        <v>0.4717948717948718</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1223241590214067</v>
+        <v>0.1226685796269727</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02064220183486239</v>
+        <v>0.02008608321377331</v>
       </c>
       <c r="E10">
-        <v>0.001529051987767584</v>
+        <v>0.001434720229555237</v>
       </c>
       <c r="F10">
-        <v>0.07339449541284404</v>
+        <v>0.07532281205164992</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1162079510703364</v>
+        <v>0.1147776183644189</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03134556574923547</v>
+        <v>0.03012912482065997</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1880733944954129</v>
+        <v>0.1886657101865136</v>
       </c>
       <c r="R10">
-        <v>0.07874617737003058</v>
+        <v>0.07747489239598278</v>
       </c>
       <c r="S10">
-        <v>0.367737003058104</v>
+        <v>0.3694404591104735</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1381909547738693</v>
+        <v>0.1331775700934579</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0678391959798995</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="K11">
-        <v>0.1984924623115578</v>
+        <v>0.1939252336448598</v>
       </c>
       <c r="L11">
-        <v>0.585427135678392</v>
+        <v>0.5911214953271028</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01005025125628141</v>
+        <v>0.01635514018691589</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7366255144032922</v>
+        <v>0.7320754716981132</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.205761316872428</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01234567901234568</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04526748971193416</v>
+        <v>0.04150943396226415</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6521739130434783</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3260869565217391</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02049180327868852</v>
+        <v>0.01901140684410646</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1147540983606557</v>
+        <v>0.1178707224334601</v>
       </c>
       <c r="I15">
-        <v>0.06147540983606557</v>
+        <v>0.05703422053231939</v>
       </c>
       <c r="J15">
-        <v>0.3360655737704918</v>
+        <v>0.3422053231939163</v>
       </c>
       <c r="K15">
-        <v>0.06557377049180328</v>
+        <v>0.07224334600760456</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01229508196721311</v>
+        <v>0.01140684410646388</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06557377049180328</v>
+        <v>0.06463878326996197</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3237704918032787</v>
+        <v>0.3155893536121673</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02202643171806168</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1233480176211454</v>
+        <v>0.115702479338843</v>
       </c>
       <c r="I16">
-        <v>0.0881057268722467</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="J16">
-        <v>0.4581497797356828</v>
+        <v>0.4710743801652892</v>
       </c>
       <c r="K16">
-        <v>0.1585903083700441</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00881057268722467</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.00881057268722467</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.13215859030837</v>
+        <v>0.1446280991735537</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01745635910224439</v>
+        <v>0.01624129930394431</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1920199501246883</v>
+        <v>0.1902552204176334</v>
       </c>
       <c r="I17">
-        <v>0.0598503740648379</v>
+        <v>0.05568445475638051</v>
       </c>
       <c r="J17">
-        <v>0.3990024937655861</v>
+        <v>0.4060324825986079</v>
       </c>
       <c r="K17">
-        <v>0.1221945137157107</v>
+        <v>0.1276102088167053</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02992518703241895</v>
+        <v>0.02784222737819025</v>
       </c>
       <c r="N17">
-        <v>0.007481296758104738</v>
+        <v>0.006960556844547564</v>
       </c>
       <c r="O17">
-        <v>0.04239401496259352</v>
+        <v>0.04176334106728538</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1296758104738155</v>
+        <v>0.1276102088167053</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02259887005649718</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.192090395480226</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="I18">
-        <v>0.1129943502824859</v>
+        <v>0.109375</v>
       </c>
       <c r="J18">
-        <v>0.3446327683615819</v>
+        <v>0.3385416666666667</v>
       </c>
       <c r="K18">
-        <v>0.1525423728813559</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01129943502824859</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05649717514124294</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1073446327683616</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01412639405204461</v>
+        <v>0.01453287197231834</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.187360594795539</v>
+        <v>0.1889273356401384</v>
       </c>
       <c r="I19">
-        <v>0.07806691449814127</v>
+        <v>0.08027681660899653</v>
       </c>
       <c r="J19">
-        <v>0.3776951672862454</v>
+        <v>0.370242214532872</v>
       </c>
       <c r="K19">
-        <v>0.1434944237918216</v>
+        <v>0.1439446366782007</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02156133828996282</v>
+        <v>0.02076124567474048</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07434944237918216</v>
+        <v>0.07750865051903114</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1033457249070632</v>
+        <v>0.1038062283737024</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southern Ind._A.xlsx
+++ b/team_specific_matrix/Southern Ind._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1887323943661972</v>
+        <v>0.1888297872340426</v>
       </c>
       <c r="C2">
-        <v>0.5859154929577465</v>
+        <v>0.5824468085106383</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01126760563380282</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1436619718309859</v>
+        <v>0.1462765957446809</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07042253521126761</v>
+        <v>0.07180851063829788</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004651162790697674</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="C3">
-        <v>0.02790697674418605</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0186046511627907</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7674418604651163</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1813953488372093</v>
+        <v>0.1902654867256637</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02127659574468085</v>
+        <v>0.02</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7021276595744681</v>
+        <v>0.72</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2765957446808511</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08196721311475409</v>
+        <v>0.07905138339920949</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00819672131147541</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="E6">
-        <v>0.004098360655737705</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="F6">
-        <v>0.09836065573770492</v>
+        <v>0.09881422924901186</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2213114754098361</v>
+        <v>0.225296442687747</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01639344262295082</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09836065573770492</v>
+        <v>0.1067193675889328</v>
       </c>
       <c r="R6">
-        <v>0.06147540983606557</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="S6">
-        <v>0.4098360655737705</v>
+        <v>0.4031620553359684</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1102941176470588</v>
+        <v>0.1099290780141844</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01470588235294118</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.003546099290780142</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.06028368794326241</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1433823529411765</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02205882352941177</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1654411764705882</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="R7">
-        <v>0.05882352941176471</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="S7">
-        <v>0.4264705882352941</v>
+        <v>0.4148936170212766</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09429824561403509</v>
+        <v>0.09829059829059829</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02412280701754386</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E8">
-        <v>0.002192982456140351</v>
+        <v>0.002136752136752137</v>
       </c>
       <c r="F8">
-        <v>0.04824561403508772</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1206140350877193</v>
+        <v>0.1175213675213675</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03070175438596491</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.162280701754386</v>
+        <v>0.1581196581196581</v>
       </c>
       <c r="R8">
-        <v>0.09210526315789473</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="S8">
-        <v>0.4254385964912281</v>
+        <v>0.4294871794871795</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1025641025641026</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01538461538461539</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="F9">
-        <v>0.06666666666666667</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08717948717948718</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02564102564102564</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.158974358974359</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="R9">
-        <v>0.07179487179487179</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="S9">
-        <v>0.4717948717948718</v>
+        <v>0.4653465346534654</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1226685796269727</v>
+        <v>0.1267313019390582</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02008608321377331</v>
+        <v>0.02008310249307479</v>
       </c>
       <c r="E10">
-        <v>0.001434720229555237</v>
+        <v>0.001385041551246537</v>
       </c>
       <c r="F10">
-        <v>0.07532281205164992</v>
+        <v>0.07409972299168975</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1147776183644189</v>
+        <v>0.1163434903047091</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03012912482065997</v>
+        <v>0.02908587257617729</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1886657101865136</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="R10">
-        <v>0.07747489239598278</v>
+        <v>0.07548476454293629</v>
       </c>
       <c r="S10">
-        <v>0.3694404591104735</v>
+        <v>0.3725761772853186</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1331775700934579</v>
+        <v>0.1306306306306306</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06542056074766354</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="K11">
-        <v>0.1939252336448598</v>
+        <v>0.1914414414414414</v>
       </c>
       <c r="L11">
-        <v>0.5911214953271028</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01635514018691589</v>
+        <v>0.01576576576576576</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7320754716981132</v>
+        <v>0.7364620938628159</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2075471698113208</v>
+        <v>0.2057761732851986</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01886792452830189</v>
+        <v>0.01805054151624549</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04150943396226415</v>
+        <v>0.03971119133574007</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01901140684410646</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1178707224334601</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="I15">
-        <v>0.05703422053231939</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="J15">
-        <v>0.3422053231939163</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="K15">
-        <v>0.07224334600760456</v>
+        <v>0.07037037037037037</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01140684410646388</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06463878326996197</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3155893536121673</v>
+        <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02066115702479339</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.115702479338843</v>
+        <v>0.1167315175097276</v>
       </c>
       <c r="I16">
-        <v>0.08264462809917356</v>
+        <v>0.08560311284046693</v>
       </c>
       <c r="J16">
-        <v>0.4710743801652892</v>
+        <v>0.4630350194552529</v>
       </c>
       <c r="K16">
-        <v>0.1487603305785124</v>
+        <v>0.1517509727626459</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008264462809917356</v>
+        <v>0.007782101167315175</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.008264462809917356</v>
+        <v>0.007782101167315175</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1446280991735537</v>
+        <v>0.1478599221789883</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01624129930394431</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1902552204176334</v>
+        <v>0.1859410430839002</v>
       </c>
       <c r="I17">
-        <v>0.05568445475638051</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="J17">
-        <v>0.4060324825986079</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="K17">
-        <v>0.1276102088167053</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02784222737819025</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="N17">
-        <v>0.006960556844547564</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="O17">
-        <v>0.04176334106728538</v>
+        <v>0.04308390022675737</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1276102088167053</v>
+        <v>0.1292517006802721</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02083333333333333</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2083333333333333</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="I18">
-        <v>0.109375</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="J18">
-        <v>0.3385416666666667</v>
+        <v>0.3350515463917526</v>
       </c>
       <c r="K18">
-        <v>0.1510416666666667</v>
+        <v>0.1494845360824742</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01041666666666667</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05208333333333334</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.109375</v>
+        <v>0.1134020618556701</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01453287197231834</v>
+        <v>0.01467645096731154</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1889273356401384</v>
+        <v>0.1894596397598399</v>
       </c>
       <c r="I19">
-        <v>0.08027681660899653</v>
+        <v>0.08005336891260841</v>
       </c>
       <c r="J19">
-        <v>0.370242214532872</v>
+        <v>0.3695797198132088</v>
       </c>
       <c r="K19">
-        <v>0.1439446366782007</v>
+        <v>0.1447631754503002</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02076124567474048</v>
+        <v>0.0200133422281521</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07750865051903114</v>
+        <v>0.0780520346897932</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1038062283737024</v>
+        <v>0.1034022681787859</v>
       </c>
     </row>
   </sheetData>
